--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_01-08.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_01-08.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Watch out for this enemy named "Crownslayer". She can cut into our back line by &lt;@tu.kw&gt;penetrating&lt;/&gt; through the block of our Operators.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Watch out for this enemy named 'Crownslayer'. She can cut into our back line by &lt;@tu.kw&gt;penetrating&lt;/&gt; through the block of our Operators.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_01-08.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_01-08.xlsx
@@ -44,11 +44,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_nearl")] Curses… That person in front of us…
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Watch out for this enemy named 'Crownslayer'. She can cut into our back line by &lt;@tu.kw&gt;penetrating&lt;/&gt; through the block of our Operators.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_nearl")] Curses... That person in front of us...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Watch out for this enemy named 'Crownslayer.' She can cut into our back line by &lt;@tu.kw&gt;penetrating&lt;/&gt; through the block of our Operators.
 </t>
   </si>
   <si>
